--- a/medicine/Enfance/Jordi_Sierra_i_Fabra/Jordi_Sierra_i_Fabra.xlsx
+++ b/medicine/Enfance/Jordi_Sierra_i_Fabra/Jordi_Sierra_i_Fabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jordi Sierra i Fabra, né à Barcelone le 26 juillet 1947, est un écrivain espagnol, d'expression catalane et espagnole. Il est à la fois auteur de littérature, notamment fantastique et pour la jeunesse, et chroniqueur musical. Auteur de plus de quatre cents titres, il a vendu plusieurs millions d'exemplaires en Espagne et en Amérique latine, est traduit dans vingt-cinq langues, et a reçu de très nombreux prix littéraires, dont en 2007 le prestigieux Prix national de littérature d'enfance et de jeunesse attribué par le ministère espagnol de la Culture.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'intérêt de Jordi Sierra i Fabra pour la littérature débute alors qu'il n'a que huit ans et qu'il a été victime d'un grave accident. À douze ans, il écrit son premier roman de 500 pages, en ayant déjà produit plusieurs autres de plus de 100 pages. Après l'obtention de son baccalauréat en 1964, il entame des études de technicien du bâtiment grâce à des cours du soir, tout en travaillant dans la construction la journée[1].
-Après avoir commencé à s'investir dans la presse musicale dès 1968, il décide en 1970 d'arrêter ses études et son travail pour se consacrer entièrement à la chronique musicale. Il participe à la création de plusieurs revues, parmi lesquelles Super Pop et Popular 1, ainsi qu'à la rédaction du Trivial Pursuit du rock[1].
-Particulièrement reconnu pour ses ouvrages de la littérature jeunesse, il crée en 2004 à Medellín (Colombie) la Fondation  Jordi Sierra i Fabra, destinée à encourager la créativité littéraire chez les jeunes dans le monde hispanophone et qui attribue chaque année le Prix littéraire Jordi Sierra i Fabra, réservé aux moins de dix-huit ans. La même année, il crée également les Ateliers d'écriture pour l'Amérique latine, qui touchent plus de cent mille jeunes chaque année[1].
-En 2007 Jordi Sierra i Fabra reçoit le Prix national de littérature d'enfance et de jeunesse du Ministère de la Culture d'Espagne pour Kafka y la muñeca viajera[2] et en 2017 la Médaille d'or du mérite des beaux-arts du Ministère de l'Éducation, de la Culture et des Sports d'Espagne[3].
-En mai 2018, Carles Puigdemont l'inclut dans la liste des dix-huit personnalités de l'année proposées pour recevoir la Creu de Sant Jordi, distinction attribuée par la Généralité de Catalogne[4].
-En 2022, il est à nouveau sélectionné pour représenter son pays, l'Espagne, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur[5], prix international danois. Il avait également été sélectionné en 2006, 2012 et 2020[6].
-En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intérêt de Jordi Sierra i Fabra pour la littérature débute alors qu'il n'a que huit ans et qu'il a été victime d'un grave accident. À douze ans, il écrit son premier roman de 500 pages, en ayant déjà produit plusieurs autres de plus de 100 pages. Après l'obtention de son baccalauréat en 1964, il entame des études de technicien du bâtiment grâce à des cours du soir, tout en travaillant dans la construction la journée.
+Après avoir commencé à s'investir dans la presse musicale dès 1968, il décide en 1970 d'arrêter ses études et son travail pour se consacrer entièrement à la chronique musicale. Il participe à la création de plusieurs revues, parmi lesquelles Super Pop et Popular 1, ainsi qu'à la rédaction du Trivial Pursuit du rock.
+Particulièrement reconnu pour ses ouvrages de la littérature jeunesse, il crée en 2004 à Medellín (Colombie) la Fondation  Jordi Sierra i Fabra, destinée à encourager la créativité littéraire chez les jeunes dans le monde hispanophone et qui attribue chaque année le Prix littéraire Jordi Sierra i Fabra, réservé aux moins de dix-huit ans. La même année, il crée également les Ateliers d'écriture pour l'Amérique latine, qui touchent plus de cent mille jeunes chaque année.
+En 2007 Jordi Sierra i Fabra reçoit le Prix national de littérature d'enfance et de jeunesse du Ministère de la Culture d'Espagne pour Kafka y la muñeca viajera et en 2017 la Médaille d'or du mérite des beaux-arts du Ministère de l'Éducation, de la Culture et des Sports d'Espagne.
+En mai 2018, Carles Puigdemont l'inclut dans la liste des dix-huit personnalités de l'année proposées pour recevoir la Creu de Sant Jordi, distinction attribuée par la Généralité de Catalogne.
+En 2022, il est à nouveau sélectionné pour représenter son pays, l'Espagne, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur, prix international danois. Il avait également été sélectionné en 2006, 2012 et 2020.
+En 2023, il est sélectionné pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -550,7 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fiction
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 El mundo de las ratas doradas – Ed. Marte 1975
 La revolución del 32 de Triciembre – Ed. ATE 1976
 Complot en Madrid – Ed. ATE 1977
@@ -607,7 +627,43 @@
 A l'altre costat de l'infern – Amsterdam (Ara Llibres) 2015
 Tres dies d'agost / Tres días de agosto – Plaza &amp; Janés 2016
 Les paraules ferides / Las palabras heridas – Amsterdam (Ara Llibres) / Siruela 2017
-Histoire de la musique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jordi_Sierra_i_Fabra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jordi_Sierra_i_Fabra</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Histoire de la musique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1962-1972 Historia de la Música Pop – Edunisa 1972
 Anexo a Historia de la Música Pop – Grupo Profesional 1973
 Mitos del pop inglés – Grupo Profesional 1973
@@ -624,11 +680,47 @@
 Enciclopedia de los Grandes del Rock de la A a la Z – Orbis Fabri 1994-1996
 Diario de los Beatles – Plaza y Janés 1995
 El gran álbum del pop-rock – Círculo de Lectores 1997
-Cadáveres bien parecidos – La Máscara 1999 (avec Jordi Bianciotto) (traduit en français : Rock : la fureur de mourir, Éd. la Máscara, 1999)[8]
+Cadáveres bien parecidos – La Máscara 1999 (avec Jordi Bianciotto) (traduit en français : Rock : la fureur de mourir, Éd. la Máscara, 1999)
 La Era rock 1953-2003 – Espasa 2003
 Bob Dylan – Folio 2005 (amb Jordi Bianciotto)
 Història i poder del rock català – Enderrock 2007
-Biographies
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jordi_Sierra_i_Fabra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jordi_Sierra_i_Fabra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pink Floyd (1) – Edicomunicación 1976
 Rolling Stones (1) – Edicomunicación 1976
 Who – Edicomunicación 1976
@@ -667,13 +759,83 @@
 John Lennon. Imagina que esto fue real – Panamericana (Colombie) 2005
 John Lennon, biografía – Punto de Lectura 2005
 Estimat Ronaldinho / Querido Ronaldinho – Empúries 2004 / El Aleph 2005
-Poésie
-Canciones, poemas y (algunos) sentimientos – Teorema 1981
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jordi_Sierra_i_Fabra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jordi_Sierra_i_Fabra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Canciones, poemas y (algunos) sentimientos – Teorema 1981
 Confieso que he soñado – Teorema 1987
-Cuentos y poemas para un mes cualquiera – Oxford 2005
-Littérature jeunesse
+Cuentos y poemas para un mes cualquiera – Oxford 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jordi_Sierra_i_Fabra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jordi_Sierra_i_Fabra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 El cazador – SM 1981
-...en un lugar llamado Tierra (trilogia «El ciclo de las Tierras») – SM 1983 (traduit en français : En un lieu nommé Terre, A. Noël, 1992)[9]
+...en un lugar llamado Tierra (trilogia «El ciclo de las Tierras») – SM 1983 (traduit en français : En un lieu nommé Terre, A. Noël, 1992)
 Sencillamente amor – Ed. Martínez Roca 1983
 Regreso a un lugar llamado Tierra (trilogia «El ciclo de las Tierras») – SM 1986
 El testamento de un lugar llamado Tierra (trilogia «El ciclo de las Tierras») – SM 1987
@@ -733,7 +895,7 @@
 Zonas interiores – Destino 2002 / Planeta Oxford 2004
 Tiempo muerto – Espasa 2002
 Buscando a Bob – Anaya 2005
-El mensajero del miedo – Bruño 2003 (traduit en français : Le prix de la peur, Hachette jeunesse, 2005)[10]
+El mensajero del miedo – Bruño 2003 (traduit en français : Le prix de la peur, Hachette jeunesse, 2005)
 Día de rodaje – Bruño 2003
 La canción de Mani Blay – Bruño 2003
 Sin tiempo para soñar – Bruño 2003
@@ -786,8 +948,43 @@
 Tester (Provador) / Tester (Probador) – Edebé 2010
 El caso del falso accidente (Berta Mir 1) – Siruela 2010
 El aprendiz de brujo y Los Invisibles – Edebé 2016
-Divers
-Mitología pop española – Ed. Marte 1973
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jordi_Sierra_i_Fabra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jordi_Sierra_i_Fabra</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mitología pop española – Ed. Marte 1973
 Barcelona insólita – SM 1991
 Antología de textos – SM 1996
 50 raons per SER / NO SER del Barça – Columna 2000
@@ -795,36 +992,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Jordi_Sierra_i_Fabra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jordi_Sierra_i_Fabra</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2007 : Prix national de littérature d'enfance et de jeunesse pour Kafka y la muñeca viajera
 2017 : Médaille d'or du mérite des beaux-arts
-2006, 2012, 2020 et 2022 :  Sélection Espagne du Prix Hans-Christian-Andersen, dans la catégorie Auteur[6],[5]
-2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgrendurant cinq années d'affilée[7]</t>
+2006, 2012, 2020 et 2022 :  Sélection Espagne du Prix Hans-Christian-Andersen, dans la catégorie Auteur,
+2019 à 2023 :  Sélection pour le Prix commémoratif Astrid-Lindgrendurant cinq années d'affilée</t>
         </is>
       </c>
     </row>
